--- a/data/pesquisa.xlsx
+++ b/data/pesquisa.xlsx
@@ -451,7 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -814,7 +814,7 @@
     <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="22.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="3" width="75.14785714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -829,7 +829,7 @@
     <col min="17" max="17" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
